--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A40F42-3000-44AD-B5B8-4D1B0F8EC53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A359D5F-E26F-4FEE-BA83-AD965EFCB442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
+    <workbookView xWindow="4365" yWindow="2550" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_standard_variables" sheetId="1" r:id="rId1"/>
@@ -467,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI10" sqref="AI10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X7" sqref="B7:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -598,8 +598,11 @@
       <c r="AM1" s="1">
         <v>43924</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -717,8 +720,11 @@
       <c r="AM2">
         <v>1613</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -836,8 +842,11 @@
       <c r="AM3">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -955,80 +964,14 @@
       <c r="AM4">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>7172</v>
       </c>
@@ -1071,8 +1014,11 @@
       <c r="AM5">
         <v>22437</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5">
+        <v>23333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1170,79 +1116,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
         <v>90</v>
       </c>
@@ -1262,79 +1139,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>253</v>
       </c>
@@ -1356,80 +1164,14 @@
       <c r="AH8">
         <v>646</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
         <v>220</v>
       </c>
@@ -1451,80 +1193,14 @@
       <c r="AH9">
         <v>504</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
         <v>89</v>
       </c>
@@ -1549,80 +1225,14 @@
       <c r="AM10">
         <v>320</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>218</v>
       </c>
@@ -1647,80 +1257,14 @@
       <c r="AM11">
         <v>686</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>104</v>
       </c>
@@ -1745,80 +1289,14 @@
       <c r="AM12">
         <v>463</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN12">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
         <v>19</v>
       </c>
@@ -1843,8 +1321,11 @@
       <c r="AM13">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1962,8 +1443,11 @@
       <c r="AM14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2080,6 +1564,9 @@
       </c>
       <c r="AM15">
         <v>44</v>
+      </c>
+      <c r="AN15">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2090,19 +1577,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2220,80 +1708,15 @@
       <c r="AM1" s="1">
         <v>43924</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="1">
+        <v>43925</v>
+      </c>
+      <c r="AO1" s="1"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>455</v>
       </c>
@@ -2316,79 +1739,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>434</v>
       </c>
@@ -2411,79 +1765,10 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>117</v>
       </c>
@@ -2503,79 +1788,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>64</v>
       </c>
@@ -2595,79 +1811,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
         <v>56</v>
       </c>
@@ -2687,52 +1834,238 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
       <c r="AM7">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
       <c r="AM8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
       <c r="AM9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
       <c r="AM10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="AM11">
         <v>335</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="AM12">
         <v>563</v>
+      </c>
+      <c r="AN12">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A359D5F-E26F-4FEE-BA83-AD965EFCB442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C1E302-C81D-431D-853A-9665DF861EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2550" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
+    <workbookView xWindow="3060" yWindow="2310" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_standard_variables" sheetId="1" r:id="rId1"/>
@@ -467,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X7" sqref="B7:X7"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP5" sqref="AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -601,8 +601,11 @@
       <c r="AN1" s="1">
         <v>43925</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" s="1">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -723,8 +726,11 @@
       <c r="AN2">
         <v>1673</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -845,8 +851,11 @@
       <c r="AN3">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -967,8 +976,11 @@
       <c r="AN4">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1017,8 +1029,11 @@
       <c r="AN5">
         <v>23333</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO5">
+        <v>25453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +1131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1167,8 +1182,11 @@
       <c r="AN8">
         <v>851</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO8">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1196,8 +1214,11 @@
       <c r="AN9">
         <v>702</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO9">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1228,8 +1249,11 @@
       <c r="AN10">
         <v>331</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1260,8 +1284,11 @@
       <c r="AN11">
         <v>712</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO11">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1292,8 +1319,11 @@
       <c r="AN12">
         <v>488</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO12">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="AN13">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1446,8 +1479,11 @@
       <c r="AN14">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1567,6 +1603,9 @@
       </c>
       <c r="AN15">
         <v>49</v>
+      </c>
+      <c r="AO15">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1580,14 +1619,14 @@
   <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E25" sqref="E25"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -1711,7 +1750,9 @@
       <c r="AN1" s="1">
         <v>43925</v>
       </c>
-      <c r="AO1" s="1"/>
+      <c r="AO1" s="1">
+        <v>43926</v>
+      </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1886,6 +1927,9 @@
       <c r="AN7">
         <v>49</v>
       </c>
+      <c r="AO7">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1939,6 +1983,9 @@
       <c r="AN8">
         <v>18</v>
       </c>
+      <c r="AO8">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1992,6 +2039,9 @@
       <c r="AN9">
         <v>1</v>
       </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2045,6 +2095,9 @@
       <c r="AN10">
         <v>0</v>
       </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2056,6 +2109,9 @@
       <c r="AN11">
         <v>343</v>
       </c>
+      <c r="AO11">
+        <v>352</v>
+      </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2066,6 +2122,9 @@
       </c>
       <c r="AN12">
         <v>592</v>
+      </c>
+      <c r="AO12">
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDB566-2D92-41FE-A538-C5719A95EB52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A35F3D-E74C-43A4-B989-D2A7E5C592B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="2310" windowWidth="21600" windowHeight="11505" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
@@ -467,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ13" sqref="AQ13"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="42" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -607,8 +607,11 @@
       <c r="AP1" s="1">
         <v>43927</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -735,8 +738,11 @@
       <c r="AP2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ2">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -863,8 +869,11 @@
       <c r="AP3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="AP4">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1047,8 +1059,11 @@
       <c r="AP5">
         <v>26193</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ5">
+        <v>28584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1149,7 +1164,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1206,8 +1221,11 @@
       <c r="AP8">
         <v>906</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ8">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1241,8 +1259,11 @@
       <c r="AP9">
         <v>737</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ9">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1279,8 +1300,11 @@
       <c r="AP10">
         <v>350</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ10">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1317,8 +1341,11 @@
       <c r="AP11">
         <v>750</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ11">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1355,8 +1382,11 @@
       <c r="AP12">
         <v>519</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ12">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1393,8 +1423,11 @@
       <c r="AP13">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1521,8 +1554,11 @@
       <c r="AP14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1648,6 +1684,9 @@
       </c>
       <c r="AP15">
         <v>57</v>
+      </c>
+      <c r="AQ15">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1658,20 +1697,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:AP12"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP13" sqref="AP13"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1798,8 +1837,11 @@
       <c r="AP1" s="1">
         <v>43927</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1867,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1851,7 +1893,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1874,7 +1916,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1939,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1920,7 +1962,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1978,8 +2020,11 @@
       <c r="AP7">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2037,8 +2082,11 @@
       <c r="AP8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2096,8 +2144,11 @@
       <c r="AP9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2155,8 +2206,11 @@
       <c r="AP10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2172,8 +2226,11 @@
       <c r="AP11">
         <v>361</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ11">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2188,6 +2245,9 @@
       </c>
       <c r="AP12">
         <v>655</v>
+      </c>
+      <c r="AQ12">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A35F3D-E74C-43A4-B989-D2A7E5C592B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E09501-8482-4393-A874-CD3A83F76618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="2310" windowWidth="21600" windowHeight="11505" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
@@ -467,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
+      <selection pane="topRight" activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -610,8 +610,11 @@
       <c r="AQ1" s="1">
         <v>43928</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR1" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -741,8 +744,11 @@
       <c r="AQ2">
         <v>1832</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR2">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -872,8 +878,11 @@
       <c r="AQ3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="AQ4">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1062,8 +1074,11 @@
       <c r="AQ5">
         <v>28584</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR5">
+        <v>32528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1224,8 +1239,11 @@
       <c r="AQ8">
         <v>948</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR8">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1262,8 +1280,11 @@
       <c r="AQ9">
         <v>766</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR9">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1303,8 +1324,11 @@
       <c r="AQ10">
         <v>367</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR10">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1344,8 +1368,11 @@
       <c r="AQ11">
         <v>790</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR11">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1385,8 +1412,11 @@
       <c r="AQ12">
         <v>532</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR12">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1426,8 +1456,11 @@
       <c r="AQ13">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1590,11 @@
       <c r="AQ14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1687,6 +1723,9 @@
       </c>
       <c r="AQ15">
         <v>58</v>
+      </c>
+      <c r="AR15">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1697,20 +1736,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR8" sqref="AR8"/>
+      <selection pane="topRight" activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1840,8 +1879,11 @@
       <c r="AQ1" s="1">
         <v>43928</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR1" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1909,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1893,7 +1935,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1958,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +1981,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1962,7 +2004,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2023,8 +2065,11 @@
       <c r="AQ7">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2085,8 +2130,11 @@
       <c r="AQ8">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2147,8 +2195,11 @@
       <c r="AQ9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2209,8 +2260,11 @@
       <c r="AQ10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2229,8 +2283,11 @@
       <c r="AQ11">
         <v>501</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR11">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2248,6 +2305,9 @@
       </c>
       <c r="AQ12">
         <v>679</v>
+      </c>
+      <c r="AR12">
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E09501-8482-4393-A874-CD3A83F76618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22097DF-D440-4BB4-84B3-6DB626AFA452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2310" windowWidth="21600" windowHeight="11505" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
+    <workbookView xWindow="624" yWindow="624" windowWidth="17280" windowHeight="9132" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_standard_variables" sheetId="1" r:id="rId1"/>
@@ -467,20 +467,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS13" sqref="AS13"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -613,8 +614,14 @@
       <c r="AR1" s="1">
         <v>43929</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS1" s="1">
+        <v>43930</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -747,8 +754,14 @@
       <c r="AR2">
         <v>1884</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS2">
+        <v>1955</v>
+      </c>
+      <c r="AT2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -881,8 +894,14 @@
       <c r="AR3">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS3">
+        <v>79</v>
+      </c>
+      <c r="AT3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1015,8 +1034,14 @@
       <c r="AR4">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4">
+        <v>86</v>
+      </c>
+      <c r="AT4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1077,8 +1102,14 @@
       <c r="AR5">
         <v>32528</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS5">
+        <v>33634</v>
+      </c>
+      <c r="AT5">
+        <v>35432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1210,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1233,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1242,8 +1273,11 @@
       <c r="AR8">
         <v>1027</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS8">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1283,8 +1317,11 @@
       <c r="AR9">
         <v>771</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1327,8 +1364,11 @@
       <c r="AR10">
         <v>383</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1371,8 +1411,11 @@
       <c r="AR11">
         <v>817</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS11">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1415,8 +1458,11 @@
       <c r="AR12">
         <v>548</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS12">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1459,8 +1505,14 @@
       <c r="AR13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS13">
+        <v>51</v>
+      </c>
+      <c r="AT13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1593,8 +1645,14 @@
       <c r="AR14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS14">
+        <v>23</v>
+      </c>
+      <c r="AT14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1726,6 +1784,12 @@
       </c>
       <c r="AR15">
         <v>60</v>
+      </c>
+      <c r="AS15">
+        <v>63</v>
+      </c>
+      <c r="AT15">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1736,20 +1800,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS12" sqref="AS12"/>
+      <selection pane="topRight" activeCell="AU12" sqref="AU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1882,8 +1947,14 @@
       <c r="AR1" s="1">
         <v>43929</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS1" s="1">
+        <v>43930</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +1980,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1935,7 +2006,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +2029,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2052,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2004,7 +2075,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2068,8 +2139,11 @@
       <c r="AR7">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2133,8 +2207,11 @@
       <c r="AR8">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2198,8 +2275,11 @@
       <c r="AR9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2263,8 +2343,11 @@
       <c r="AR10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2286,8 +2369,14 @@
       <c r="AR11">
         <v>509</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS11">
+        <v>518</v>
+      </c>
+      <c r="AT11">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2308,6 +2397,12 @@
       </c>
       <c r="AR12">
         <v>708</v>
+      </c>
+      <c r="AS12">
+        <v>734</v>
+      </c>
+      <c r="AT12">
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22097DF-D440-4BB4-84B3-6DB626AFA452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C52F5-CA3C-44CC-81C1-865E6403F8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="624" windowWidth="17280" windowHeight="9132" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_standard_variables" sheetId="1" r:id="rId1"/>
@@ -467,21 +467,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AT15"/>
+  <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU14" sqref="AU14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -620,8 +620,11 @@
       <c r="AT1" s="1">
         <v>43931</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU1" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -760,8 +763,11 @@
       <c r="AT2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU2">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="AT3">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1040,8 +1049,11 @@
       <c r="AT4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1108,8 +1120,11 @@
       <c r="AT5">
         <v>35432</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU5">
+        <v>37344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1233,7 +1248,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1276,8 +1291,14 @@
       <c r="AS8">
         <v>1070</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT8">
+        <v>1102</v>
+      </c>
+      <c r="AU8">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1320,8 +1341,14 @@
       <c r="AS9">
         <v>803</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT9">
+        <v>817</v>
+      </c>
+      <c r="AU9">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1367,8 +1394,14 @@
       <c r="AS10">
         <v>397</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT10">
+        <v>408</v>
+      </c>
+      <c r="AU10">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1414,8 +1447,14 @@
       <c r="AS11">
         <v>850</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT11">
+        <v>867</v>
+      </c>
+      <c r="AU11">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1461,8 +1500,14 @@
       <c r="AS12">
         <v>578</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT12">
+        <v>591</v>
+      </c>
+      <c r="AU12">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1511,8 +1556,11 @@
       <c r="AT13">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1651,8 +1699,11 @@
       <c r="AT14">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1790,6 +1841,9 @@
       </c>
       <c r="AT15">
         <v>64</v>
+      </c>
+      <c r="AU15">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1800,21 +1854,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU12" sqref="AU12"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV7" sqref="AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1953,8 +2007,11 @@
       <c r="AT1" s="1">
         <v>43931</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU1" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1980,7 +2037,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2006,7 +2063,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2029,7 +2086,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2052,7 +2109,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +2132,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2142,8 +2199,14 @@
       <c r="AS7">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT7">
+        <v>65</v>
+      </c>
+      <c r="AU7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2210,8 +2273,14 @@
       <c r="AS8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT8">
+        <v>24</v>
+      </c>
+      <c r="AU8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2278,8 +2347,14 @@
       <c r="AS9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2346,8 +2421,14 @@
       <c r="AS10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2375,8 +2456,11 @@
       <c r="AT11">
         <v>525</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU11">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2403,6 +2487,9 @@
       </c>
       <c r="AT12">
         <v>776</v>
+      </c>
+      <c r="AU12">
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C52F5-CA3C-44CC-81C1-865E6403F8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F90135C-D26A-4153-B5DC-3E86ED0C7756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_standard_variables" sheetId="1" r:id="rId1"/>
@@ -467,11 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR10" sqref="AR10"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,9 +479,10 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -623,8 +624,20 @@
       <c r="AU1" s="1">
         <v>43932</v>
       </c>
+      <c r="AV1" s="1">
+        <v>43933</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>43934</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>43935</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>43936</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -766,8 +779,20 @@
       <c r="AU2">
         <v>2081</v>
       </c>
+      <c r="AV2">
+        <v>2114</v>
+      </c>
+      <c r="AW2">
+        <v>2145</v>
+      </c>
+      <c r="AX2">
+        <v>2170</v>
+      </c>
+      <c r="AY2">
+        <v>2192</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -909,8 +934,20 @@
       <c r="AU3">
         <v>75</v>
       </c>
+      <c r="AV3">
+        <v>76</v>
+      </c>
+      <c r="AW3">
+        <v>73</v>
+      </c>
+      <c r="AX3">
+        <v>76</v>
+      </c>
+      <c r="AY3">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1052,8 +1089,20 @@
       <c r="AU4">
         <v>93</v>
       </c>
+      <c r="AV4">
+        <v>98</v>
+      </c>
+      <c r="AW4">
+        <v>99</v>
+      </c>
+      <c r="AX4">
+        <v>101</v>
+      </c>
+      <c r="AY4">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1123,8 +1172,20 @@
       <c r="AU5">
         <v>37344</v>
       </c>
+      <c r="AV5">
+        <v>42261</v>
+      </c>
+      <c r="AW5">
+        <v>43431</v>
+      </c>
+      <c r="AX5">
+        <v>48798</v>
+      </c>
+      <c r="AY5">
+        <v>50771</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1225,7 +1286,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1309,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1297,8 +1358,21 @@
       <c r="AU8">
         <v>1141</v>
       </c>
+      <c r="AV8">
+        <f>MEDIAN(AW8,AU8)</f>
+        <v>1154</v>
+      </c>
+      <c r="AW8">
+        <v>1167</v>
+      </c>
+      <c r="AX8">
+        <v>1174</v>
+      </c>
+      <c r="AY8">
+        <v>1195</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1347,8 +1421,20 @@
       <c r="AU9">
         <v>861</v>
       </c>
+      <c r="AV9">
+        <v>880</v>
+      </c>
+      <c r="AW9">
+        <v>898</v>
+      </c>
+      <c r="AX9">
+        <v>913</v>
+      </c>
+      <c r="AY9">
+        <v>917</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1400,8 +1486,20 @@
       <c r="AU10">
         <v>426</v>
       </c>
+      <c r="AV10">
+        <v>437</v>
+      </c>
+      <c r="AW10">
+        <v>447</v>
+      </c>
+      <c r="AX10">
+        <v>452</v>
+      </c>
+      <c r="AY10">
+        <v>458</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1453,8 +1551,20 @@
       <c r="AU11">
         <v>892</v>
       </c>
+      <c r="AV11">
+        <v>903</v>
+      </c>
+      <c r="AW11">
+        <v>913</v>
+      </c>
+      <c r="AX11">
+        <v>920</v>
+      </c>
+      <c r="AY11">
+        <v>932</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1506,8 +1616,21 @@
       <c r="AU12">
         <v>615</v>
       </c>
+      <c r="AV12">
+        <f t="shared" ref="AV9:AV13" si="0">MEDIAN(AW12,AU12)</f>
+        <v>624</v>
+      </c>
+      <c r="AW12">
+        <v>633</v>
+      </c>
+      <c r="AX12">
+        <v>641</v>
+      </c>
+      <c r="AY12">
+        <v>646</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1559,8 +1682,20 @@
       <c r="AU13">
         <v>69</v>
       </c>
+      <c r="AV13">
+        <v>71</v>
+      </c>
+      <c r="AW13">
+        <v>72</v>
+      </c>
+      <c r="AX13">
+        <v>74</v>
+      </c>
+      <c r="AY13">
+        <v>76</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1702,8 +1837,20 @@
       <c r="AU14">
         <v>26</v>
       </c>
+      <c r="AV14">
+        <v>26</v>
+      </c>
+      <c r="AW14">
+        <v>26</v>
+      </c>
+      <c r="AX14">
+        <v>27</v>
+      </c>
+      <c r="AY14">
+        <v>28</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1844,6 +1991,18 @@
       </c>
       <c r="AU15">
         <v>67</v>
+      </c>
+      <c r="AV15">
+        <v>72</v>
+      </c>
+      <c r="AW15">
+        <v>73</v>
+      </c>
+      <c r="AX15">
+        <v>74</v>
+      </c>
+      <c r="AY15">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1854,11 +2013,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:AU12"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV7" sqref="AV7"/>
+      <selection pane="topRight" activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,9 +2025,10 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2010,8 +2170,20 @@
       <c r="AU1" s="1">
         <v>43932</v>
       </c>
+      <c r="AV1" s="1">
+        <v>43933</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>43934</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>43935</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>43936</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2037,7 +2209,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2063,7 +2235,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2258,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2109,7 +2281,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2205,8 +2377,20 @@
       <c r="AU7">
         <v>67</v>
       </c>
+      <c r="AV7">
+        <v>70</v>
+      </c>
+      <c r="AW7">
+        <v>71</v>
+      </c>
+      <c r="AX7">
+        <v>73</v>
+      </c>
+      <c r="AY7">
+        <v>74</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2279,8 +2463,20 @@
       <c r="AU8">
         <v>25</v>
       </c>
+      <c r="AV8">
+        <v>27</v>
+      </c>
+      <c r="AW8">
+        <v>27</v>
+      </c>
+      <c r="AX8">
+        <v>27</v>
+      </c>
+      <c r="AY8">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2353,8 +2549,20 @@
       <c r="AU9">
         <v>1</v>
       </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2427,8 +2635,20 @@
       <c r="AU10">
         <v>0</v>
       </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2459,8 +2679,20 @@
       <c r="AU11">
         <v>535</v>
       </c>
+      <c r="AV11">
+        <v>542</v>
+      </c>
+      <c r="AW11">
+        <v>554</v>
+      </c>
+      <c r="AX11">
+        <v>555</v>
+      </c>
+      <c r="AY11">
+        <v>559</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2490,6 +2722,18 @@
       </c>
       <c r="AU12">
         <v>796</v>
+      </c>
+      <c r="AV12">
+        <v>819</v>
+      </c>
+      <c r="AW12">
+        <v>856</v>
+      </c>
+      <c r="AX12">
+        <v>869</v>
+      </c>
+      <c r="AY12">
+        <v>899</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F90135C-D26A-4153-B5DC-3E86ED0C7756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887FFA2A-BF1F-4769-9C35-98D6AB9472F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_standard_variables" sheetId="1" r:id="rId1"/>
@@ -467,22 +467,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV13" sqref="AV13"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC9" sqref="BC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="44" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -636,8 +638,17 @@
       <c r="AY1" s="1">
         <v>43936</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>43937</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>43938</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>43939</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -791,8 +802,17 @@
       <c r="AY2">
         <v>2192</v>
       </c>
+      <c r="AZ2">
+        <v>2207</v>
+      </c>
+      <c r="BA2">
+        <v>2224</v>
+      </c>
+      <c r="BB2">
+        <v>2235</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -946,8 +966,17 @@
       <c r="AY3">
         <v>72</v>
       </c>
+      <c r="AZ3">
+        <v>69</v>
+      </c>
+      <c r="BA3">
+        <v>69</v>
+      </c>
+      <c r="BB3">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1101,8 +1130,17 @@
       <c r="AY4">
         <v>102</v>
       </c>
+      <c r="AZ4">
+        <v>105</v>
+      </c>
+      <c r="BA4">
+        <v>108</v>
+      </c>
+      <c r="BB4">
+        <v>110</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1178,14 +1216,20 @@
       <c r="AW5">
         <v>43431</v>
       </c>
-      <c r="AX5">
-        <v>48798</v>
-      </c>
       <c r="AY5">
-        <v>50771</v>
+        <v>47389</v>
+      </c>
+      <c r="AZ5">
+        <v>49390</v>
+      </c>
+      <c r="BA5">
+        <v>51645</v>
+      </c>
+      <c r="BB5">
+        <v>53290</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1330,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +1353,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1371,8 +1415,17 @@
       <c r="AY8">
         <v>1195</v>
       </c>
+      <c r="AZ8">
+        <v>1201</v>
+      </c>
+      <c r="BA8">
+        <v>1206</v>
+      </c>
+      <c r="BB8">
+        <v>1213</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1433,8 +1486,17 @@
       <c r="AY9">
         <v>917</v>
       </c>
+      <c r="AZ9">
+        <v>934</v>
+      </c>
+      <c r="BA9">
+        <v>944</v>
+      </c>
+      <c r="BB9">
+        <v>949</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1498,8 +1560,17 @@
       <c r="AY10">
         <v>458</v>
       </c>
+      <c r="AZ10">
+        <v>463</v>
+      </c>
+      <c r="BA10">
+        <v>465</v>
+      </c>
+      <c r="BB10">
+        <v>466</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1563,8 +1634,17 @@
       <c r="AY11">
         <v>932</v>
       </c>
+      <c r="AZ11">
+        <v>938</v>
+      </c>
+      <c r="BA11">
+        <v>946</v>
+      </c>
+      <c r="BB11">
+        <v>950</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1697,7 @@
         <v>615</v>
       </c>
       <c r="AV12">
-        <f t="shared" ref="AV9:AV13" si="0">MEDIAN(AW12,AU12)</f>
+        <f t="shared" ref="AV12" si="0">MEDIAN(AW12,AU12)</f>
         <v>624</v>
       </c>
       <c r="AW12">
@@ -1629,8 +1709,17 @@
       <c r="AY12">
         <v>646</v>
       </c>
+      <c r="AZ12">
+        <v>656</v>
+      </c>
+      <c r="BA12">
+        <v>661</v>
+      </c>
+      <c r="BB12">
+        <v>668</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1694,8 +1783,17 @@
       <c r="AY13">
         <v>76</v>
       </c>
+      <c r="AZ13">
+        <v>78</v>
+      </c>
+      <c r="BA13">
+        <v>78</v>
+      </c>
+      <c r="BB13">
+        <v>78</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1849,8 +1947,17 @@
       <c r="AY14">
         <v>28</v>
       </c>
+      <c r="AZ14">
+        <v>29</v>
+      </c>
+      <c r="BA14">
+        <v>29</v>
+      </c>
+      <c r="BB14">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2003,6 +2110,15 @@
       </c>
       <c r="AY15">
         <v>74</v>
+      </c>
+      <c r="AZ15">
+        <v>76</v>
+      </c>
+      <c r="BA15">
+        <v>79</v>
+      </c>
+      <c r="BB15">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2013,22 +2129,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW8" sqref="AW8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="44" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2182,8 +2299,17 @@
       <c r="AY1" s="1">
         <v>43936</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>43937</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>43938</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>43939</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2335,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2235,7 +2361,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2258,7 +2384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2281,7 +2407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2430,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2389,8 +2515,17 @@
       <c r="AY7">
         <v>74</v>
       </c>
+      <c r="AZ7">
+        <v>76</v>
+      </c>
+      <c r="BA7">
+        <v>79</v>
+      </c>
+      <c r="BB7">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2475,8 +2610,17 @@
       <c r="AY8">
         <v>27</v>
       </c>
+      <c r="AZ8">
+        <v>28</v>
+      </c>
+      <c r="BA8">
+        <v>28</v>
+      </c>
+      <c r="BB8">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2561,8 +2705,17 @@
       <c r="AY9">
         <v>1</v>
       </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2647,8 +2800,17 @@
       <c r="AY10">
         <v>0</v>
       </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2691,8 +2853,17 @@
       <c r="AY11">
         <v>559</v>
       </c>
+      <c r="AZ11">
+        <v>569</v>
+      </c>
+      <c r="BA11">
+        <v>568</v>
+      </c>
+      <c r="BB11">
+        <v>570</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2734,6 +2905,15 @@
       </c>
       <c r="AY12">
         <v>899</v>
+      </c>
+      <c r="AZ12">
+        <v>921</v>
+      </c>
+      <c r="BA12">
+        <v>927</v>
+      </c>
+      <c r="BB12">
+        <v>943</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887FFA2A-BF1F-4769-9C35-98D6AB9472F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9519D197-DB08-4D6F-A7F9-916D9C6D268E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_standard_variables" sheetId="1" r:id="rId1"/>
@@ -467,24 +467,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC9" sqref="BC9"/>
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH15" sqref="BH15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="44" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -647,8 +648,26 @@
       <c r="BB1" s="1">
         <v>43939</v>
       </c>
+      <c r="BC1" s="1">
+        <v>43940</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>43941</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>43942</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>43943</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>43944</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>43945</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -811,8 +830,23 @@
       <c r="BB2">
         <v>2235</v>
       </c>
+      <c r="BD2">
+        <v>2245</v>
+      </c>
+      <c r="BE2">
+        <v>2401</v>
+      </c>
+      <c r="BF2">
+        <v>2408</v>
+      </c>
+      <c r="BG2">
+        <v>2463</v>
+      </c>
+      <c r="BH2">
+        <v>2490</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -975,8 +1009,23 @@
       <c r="BB3">
         <v>67</v>
       </c>
+      <c r="BD3">
+        <v>60</v>
+      </c>
+      <c r="BE3">
+        <v>59</v>
+      </c>
+      <c r="BF3">
+        <v>55</v>
+      </c>
+      <c r="BG3">
+        <v>52</v>
+      </c>
+      <c r="BH3">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1139,8 +1188,23 @@
       <c r="BB4">
         <v>110</v>
       </c>
+      <c r="BD4">
+        <v>116</v>
+      </c>
+      <c r="BE4">
+        <v>121</v>
+      </c>
+      <c r="BF4">
+        <v>121</v>
+      </c>
+      <c r="BG4">
+        <v>125</v>
+      </c>
+      <c r="BH4">
+        <v>130</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1228,8 +1292,23 @@
       <c r="BB5">
         <v>53290</v>
       </c>
+      <c r="BD5">
+        <v>54344</v>
+      </c>
+      <c r="BE5">
+        <v>55666</v>
+      </c>
+      <c r="BF5">
+        <v>56992</v>
+      </c>
+      <c r="BG5">
+        <v>59241</v>
+      </c>
+      <c r="BH5">
+        <v>61407</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1409,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1432,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1503,20 @@
       <c r="BB8">
         <v>1213</v>
       </c>
+      <c r="BD8">
+        <v>1219</v>
+      </c>
+      <c r="BE8">
+        <v>1224</v>
+      </c>
+      <c r="BF8">
+        <v>1230</v>
+      </c>
+      <c r="BG8">
+        <v>1256</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1495,8 +1586,20 @@
       <c r="BB9">
         <v>949</v>
       </c>
+      <c r="BD9">
+        <v>955</v>
+      </c>
+      <c r="BE9">
+        <v>960</v>
+      </c>
+      <c r="BF9">
+        <v>966</v>
+      </c>
+      <c r="BG9">
+        <v>990</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1569,8 +1672,23 @@
       <c r="BB10">
         <v>466</v>
       </c>
+      <c r="BD10">
+        <v>469</v>
+      </c>
+      <c r="BE10">
+        <v>469</v>
+      </c>
+      <c r="BF10">
+        <v>473</v>
+      </c>
+      <c r="BG10">
+        <v>490</v>
+      </c>
+      <c r="BH10">
+        <v>497</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1643,8 +1761,23 @@
       <c r="BB11">
         <v>950</v>
       </c>
+      <c r="BD11">
+        <v>957</v>
+      </c>
+      <c r="BE11">
+        <v>961</v>
+      </c>
+      <c r="BF11">
+        <v>964</v>
+      </c>
+      <c r="BG11">
+        <v>984</v>
+      </c>
+      <c r="BH11">
+        <v>998</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1718,8 +1851,23 @@
       <c r="BB12">
         <v>668</v>
       </c>
+      <c r="BD12">
+        <v>670</v>
+      </c>
+      <c r="BE12">
+        <v>675</v>
+      </c>
+      <c r="BF12">
+        <v>681</v>
+      </c>
+      <c r="BG12">
+        <v>694</v>
+      </c>
+      <c r="BH12">
+        <v>703</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1792,8 +1940,23 @@
       <c r="BB13">
         <v>78</v>
       </c>
+      <c r="BD13">
+        <v>78</v>
+      </c>
+      <c r="BE13">
+        <v>79</v>
+      </c>
+      <c r="BF13">
+        <v>78</v>
+      </c>
+      <c r="BG13">
+        <v>80</v>
+      </c>
+      <c r="BH13">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1956,8 +2119,23 @@
       <c r="BB14">
         <v>29</v>
       </c>
+      <c r="BD14">
+        <v>30</v>
+      </c>
+      <c r="BE14">
+        <v>32</v>
+      </c>
+      <c r="BF14">
+        <v>32</v>
+      </c>
+      <c r="BG14">
+        <v>32</v>
+      </c>
+      <c r="BH14">
+        <v>34</v>
+      </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2119,6 +2297,21 @@
       </c>
       <c r="BB15">
         <v>81</v>
+      </c>
+      <c r="BD15">
+        <v>86</v>
+      </c>
+      <c r="BE15">
+        <v>89</v>
+      </c>
+      <c r="BF15">
+        <v>89</v>
+      </c>
+      <c r="BG15">
+        <v>93</v>
+      </c>
+      <c r="BH15">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2129,23 +2322,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC12" sqref="BC12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH13" sqref="BH13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="44" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2308,8 +2502,26 @@
       <c r="BB1" s="1">
         <v>43939</v>
       </c>
+      <c r="BC1" s="1">
+        <v>43940</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>43941</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>43942</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>43943</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>43944</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>43945</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2335,7 +2547,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2361,7 +2573,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2596,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2407,7 +2619,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2430,7 +2642,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2524,8 +2736,23 @@
       <c r="BB7">
         <v>80</v>
       </c>
+      <c r="BD7">
+        <v>86</v>
+      </c>
+      <c r="BE7">
+        <v>90</v>
+      </c>
+      <c r="BF7">
+        <v>90</v>
+      </c>
+      <c r="BG7">
+        <v>93</v>
+      </c>
+      <c r="BH7">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2619,8 +2846,23 @@
       <c r="BB8">
         <v>29</v>
       </c>
+      <c r="BD8">
+        <v>29</v>
+      </c>
+      <c r="BE8">
+        <v>29</v>
+      </c>
+      <c r="BF8">
+        <v>29</v>
+      </c>
+      <c r="BG8">
+        <v>30</v>
+      </c>
+      <c r="BH8">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2714,8 +2956,23 @@
       <c r="BB9">
         <v>1</v>
       </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>2</v>
+      </c>
+      <c r="BG9">
+        <v>2</v>
+      </c>
+      <c r="BH9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2809,8 +3066,23 @@
       <c r="BB10">
         <v>0</v>
       </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2862,8 +3134,23 @@
       <c r="BB11">
         <v>570</v>
       </c>
+      <c r="BD11">
+        <v>571</v>
+      </c>
+      <c r="BE11">
+        <v>572</v>
+      </c>
+      <c r="BF11">
+        <v>573</v>
+      </c>
+      <c r="BG11">
+        <v>574</v>
+      </c>
+      <c r="BH11">
+        <v>580</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2914,6 +3201,21 @@
       </c>
       <c r="BB12">
         <v>943</v>
+      </c>
+      <c r="BD12">
+        <v>950</v>
+      </c>
+      <c r="BE12">
+        <v>1111</v>
+      </c>
+      <c r="BF12">
+        <v>1124</v>
+      </c>
+      <c r="BG12">
+        <v>1131</v>
+      </c>
+      <c r="BH12">
+        <v>1160</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/timeline_all_variables.xlsx
+++ b/dataset/timeline_all_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9519D197-DB08-4D6F-A7F9-916D9C6D268E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B6ED68-09BC-47A7-A634-9608CF02BFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
@@ -467,11 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:BH15"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH15" sqref="BH15"/>
+      <pane xSplit="1" topLeftCell="BE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN11" sqref="BN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +482,10 @@
     <col min="48" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -666,8 +666,23 @@
       <c r="BH1" s="1">
         <v>43945</v>
       </c>
+      <c r="BI1" s="1">
+        <v>43946</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>43947</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>43948</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>43949</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>43950</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -845,8 +860,23 @@
       <c r="BH2">
         <v>2490</v>
       </c>
+      <c r="BI2">
+        <v>2506</v>
+      </c>
+      <c r="BJ2">
+        <v>2517</v>
+      </c>
+      <c r="BK2">
+        <v>2534</v>
+      </c>
+      <c r="BL2">
+        <v>2566</v>
+      </c>
+      <c r="BM2">
+        <v>2576</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1024,8 +1054,23 @@
       <c r="BH3">
         <v>48</v>
       </c>
+      <c r="BI3">
+        <v>47</v>
+      </c>
+      <c r="BJ3">
+        <v>46</v>
+      </c>
+      <c r="BK3">
+        <v>43</v>
+      </c>
+      <c r="BL3">
+        <v>40</v>
+      </c>
+      <c r="BM3">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1203,8 +1248,23 @@
       <c r="BH4">
         <v>130</v>
       </c>
+      <c r="BI4">
+        <v>130</v>
+      </c>
+      <c r="BJ4">
+        <v>134</v>
+      </c>
+      <c r="BK4">
+        <v>136</v>
+      </c>
+      <c r="BL4">
+        <v>138</v>
+      </c>
+      <c r="BM4">
+        <v>139</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1307,8 +1367,23 @@
       <c r="BH5">
         <v>61407</v>
       </c>
+      <c r="BI5">
+        <v>63087</v>
+      </c>
+      <c r="BJ5">
+        <v>64608</v>
+      </c>
+      <c r="BK5">
+        <v>66094</v>
+      </c>
+      <c r="BL5">
+        <v>69833</v>
+      </c>
+      <c r="BM5">
+        <v>72130</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1484,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +1507,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1515,8 +1590,26 @@
       <c r="BG8">
         <v>1256</v>
       </c>
+      <c r="BH8">
+        <v>1267</v>
+      </c>
+      <c r="BI8">
+        <v>1271</v>
+      </c>
+      <c r="BJ8">
+        <v>1278</v>
+      </c>
+      <c r="BK8">
+        <v>1289</v>
+      </c>
+      <c r="BL8">
+        <v>1309</v>
+      </c>
+      <c r="BM8">
+        <v>1317</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1598,8 +1691,26 @@
       <c r="BG9">
         <v>990</v>
       </c>
+      <c r="BH9">
+        <v>1013</v>
+      </c>
+      <c r="BI9">
+        <v>1021</v>
+      </c>
+      <c r="BJ9">
+        <v>1025</v>
+      </c>
+      <c r="BK9">
+        <v>1035</v>
+      </c>
+      <c r="BL9">
+        <v>1047</v>
+      </c>
+      <c r="BM9">
+        <v>1049</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1687,8 +1798,23 @@
       <c r="BH10">
         <v>497</v>
       </c>
+      <c r="BI10">
+        <v>499</v>
+      </c>
+      <c r="BJ10">
+        <v>500</v>
+      </c>
+      <c r="BK10">
+        <v>502</v>
+      </c>
+      <c r="BL10">
+        <v>510</v>
+      </c>
+      <c r="BM10">
+        <v>511</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1776,8 +1902,23 @@
       <c r="BH11">
         <v>998</v>
       </c>
+      <c r="BI11">
+        <v>1000</v>
+      </c>
+      <c r="BJ11">
+        <v>1004</v>
+      </c>
+      <c r="BK11">
+        <v>1009</v>
+      </c>
+      <c r="BL11">
+        <v>1022</v>
+      </c>
+      <c r="BM11">
+        <v>1029</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1866,8 +2007,23 @@
       <c r="BH12">
         <v>703</v>
       </c>
+      <c r="BI12">
+        <v>708</v>
+      </c>
+      <c r="BJ12">
+        <v>712</v>
+      </c>
+      <c r="BK12">
+        <v>720</v>
+      </c>
+      <c r="BL12">
+        <v>728</v>
+      </c>
+      <c r="BM12">
+        <v>730</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1955,8 +2111,23 @@
       <c r="BH13">
         <v>82</v>
       </c>
+      <c r="BI13">
+        <v>87</v>
+      </c>
+      <c r="BJ13">
+        <v>89</v>
+      </c>
+      <c r="BK13">
+        <v>95</v>
+      </c>
+      <c r="BL13">
+        <v>98</v>
+      </c>
+      <c r="BM13">
+        <v>98</v>
+      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2134,8 +2305,23 @@
       <c r="BH14">
         <v>34</v>
       </c>
+      <c r="BI14">
+        <v>34</v>
+      </c>
+      <c r="BJ14">
+        <v>35</v>
+      </c>
+      <c r="BK14">
+        <v>36</v>
+      </c>
+      <c r="BL14">
+        <v>36</v>
+      </c>
+      <c r="BM14">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2312,6 +2498,21 @@
       </c>
       <c r="BH15">
         <v>96</v>
+      </c>
+      <c r="BI15">
+        <v>96</v>
+      </c>
+      <c r="BJ15">
+        <v>99</v>
+      </c>
+      <c r="BK15">
+        <v>100</v>
+      </c>
+      <c r="BL15">
+        <v>102</v>
+      </c>
+      <c r="BM15">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2322,11 +2523,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DCB1D-46D2-4287-B9B6-57C76E264EE0}">
-  <dimension ref="A1:BH12"/>
+  <dimension ref="A1:BM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH13" sqref="BH13"/>
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN7" sqref="BN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,10 +2537,10 @@
     <col min="45" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="48" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="52" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2520,8 +2721,23 @@
       <c r="BH1" s="1">
         <v>43945</v>
       </c>
+      <c r="BI1" s="1">
+        <v>43946</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>43947</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>43948</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>43949</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>43950</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2547,7 +2763,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2573,7 +2789,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2812,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2619,7 +2835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2642,7 +2858,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2751,8 +2967,23 @@
       <c r="BH7">
         <v>97</v>
       </c>
+      <c r="BI7">
+        <v>97</v>
+      </c>
+      <c r="BJ7">
+        <v>99</v>
+      </c>
+      <c r="BK7">
+        <v>100</v>
+      </c>
+      <c r="BL7">
+        <v>102</v>
+      </c>
+      <c r="BM7">
+        <v>103</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2861,8 +3092,23 @@
       <c r="BH8">
         <v>31</v>
       </c>
+      <c r="BI8">
+        <v>31</v>
+      </c>
+      <c r="BJ8">
+        <v>33</v>
+      </c>
+      <c r="BK8">
+        <v>34</v>
+      </c>
+      <c r="BL8">
+        <v>34</v>
+      </c>
+      <c r="BM8">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2971,8 +3217,23 @@
       <c r="BH9">
         <v>2</v>
       </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>2</v>
+      </c>
+      <c r="BK9">
+        <v>2</v>
+      </c>
+      <c r="BL9">
+        <v>2</v>
+      </c>
+      <c r="BM9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3081,8 +3342,23 @@
       <c r="BH10">
         <v>0</v>
       </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3149,8 +3425,23 @@
       <c r="BH11">
         <v>580</v>
       </c>
+      <c r="BI11">
+        <v>578</v>
+      </c>
+      <c r="BJ11">
+        <v>578</v>
+      </c>
+      <c r="BK11">
+        <v>580</v>
+      </c>
+      <c r="BL11">
+        <v>588</v>
+      </c>
+      <c r="BM11">
+        <v>589</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3216,6 +3507,21 @@
       </c>
       <c r="BH12">
         <v>1160</v>
+      </c>
+      <c r="BI12">
+        <v>1174</v>
+      </c>
+      <c r="BJ12">
+        <v>1181</v>
+      </c>
+      <c r="BK12">
+        <v>1228</v>
+      </c>
+      <c r="BL12">
+        <v>1262</v>
+      </c>
+      <c r="BM12">
+        <v>1268</v>
       </c>
     </row>
   </sheetData>
